--- a/data/trans_dic/P79$ninguna_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P79$ninguna_2023-Provincia-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.973093303905769</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.979143033103372</v>
+        <v>0.9791430331033721</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9761146132244743</v>
+        <v>0.9761146132244741</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9351957700783924</v>
+        <v>0.9415075218408028</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9455812621784959</v>
+        <v>0.9390060927674366</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9550919848741231</v>
+        <v>0.9555888959904333</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9874777254300307</v>
+        <v>0.9893197984221223</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9920260055280257</v>
+        <v>0.9921713282563602</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9874627687521039</v>
+        <v>0.98797250117324</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.8872178733188213</v>
+        <v>0.8872178733188211</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9112694028438495</v>
+        <v>0.9112694028438498</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8994151112463831</v>
+        <v>0.8994151112463828</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.847972670964393</v>
+        <v>0.8460120740805915</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8859776248752077</v>
+        <v>0.8856335371269819</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8757845814791519</v>
+        <v>0.8762891262969355</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9195552395243203</v>
+        <v>0.9208237335456162</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9315258839588146</v>
+        <v>0.9307779735057845</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9195510239156744</v>
+        <v>0.9181298940494728</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.9421655562921687</v>
+        <v>0.9421655562921686</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.9327051532686861</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9372145854248058</v>
+        <v>0.9372145854248056</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.902409826648773</v>
+        <v>0.9131544404411622</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9037419461527546</v>
+        <v>0.9053151746913495</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.917816955252418</v>
+        <v>0.9158193150025525</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9634514960941467</v>
+        <v>0.9635089220895789</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9530969501919142</v>
+        <v>0.9551710730740097</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9539626410679878</v>
+        <v>0.9518352878920165</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8113471539638009</v>
+        <v>0.8101397293161821</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8605368141690743</v>
+        <v>0.8674210432330862</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8553904181698067</v>
+        <v>0.8539226906512193</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.913496656699479</v>
+        <v>0.9151765274423875</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9256821387020872</v>
+        <v>0.9286012673212199</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9148662196770005</v>
+        <v>0.9105723075473483</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.9869426308882601</v>
+        <v>0.9869426308882602</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.9762379917285466</v>
+        <v>0.9762379917285465</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.9813086512858762</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.967376575454409</v>
+        <v>0.965054058103072</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9579127670010562</v>
+        <v>0.9540419572601101</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.968057803143373</v>
+        <v>0.9673727418857109</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9970316414906149</v>
+        <v>0.9969929855315336</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9879063268131795</v>
+        <v>0.9873753222604597</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.989640175005892</v>
+        <v>0.9896137901687003</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>0.9374550638123813</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9405894476434298</v>
+        <v>0.9405894476434296</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.9107971258306944</v>
+        <v>0.9091902815240049</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9035386643384179</v>
+        <v>0.9024140250907884</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9186567246168669</v>
+        <v>0.9160584366365723</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9673654205483506</v>
+        <v>0.9668204842651441</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9603390829362635</v>
+        <v>0.9595103107798693</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9579861909245914</v>
+        <v>0.957377946486493</v>
       </c>
     </row>
     <row r="22">
@@ -897,10 +897,10 @@
         <v>0.9514616000523388</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.8986817267819797</v>
+        <v>0.8986817267819796</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9240703404330003</v>
+        <v>0.9240703404330004</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9326579368924638</v>
+        <v>0.9311948578415574</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8755675941774063</v>
+        <v>0.8747130810347138</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.908983222335944</v>
+        <v>0.9081920959253237</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9654736507971445</v>
+        <v>0.967231440771961</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9198546098718374</v>
+        <v>0.9186071610740201</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9372586719521935</v>
+        <v>0.9374230626855822</v>
       </c>
     </row>
     <row r="25">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.6144551979742549</v>
+        <v>0.614455197974255</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.6173445852407161</v>
+        <v>0.6173445852407162</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.6159186706115969</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.5782228059791754</v>
+        <v>0.5773425156932761</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.5853644701955908</v>
+        <v>0.582878047848962</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.5882780098524036</v>
+        <v>0.5924723572472202</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.6513202401945435</v>
+        <v>0.648758945891358</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.6494689917110159</v>
+        <v>0.644673004886464</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.63834098956687</v>
+        <v>0.6386400384367328</v>
       </c>
     </row>
     <row r="28">
@@ -1004,13 +1004,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.8593354673951267</v>
+        <v>0.8593354673951266</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0.8558409473021453</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.8575438446937425</v>
+        <v>0.8575438446937423</v>
       </c>
     </row>
     <row r="29">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.8451197512888374</v>
+        <v>0.8462770484932072</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.8449420801510801</v>
+        <v>0.844441300176948</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.8487709552366904</v>
+        <v>0.849173706738533</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8720197373268259</v>
+        <v>0.872492599537824</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8672288956892311</v>
+        <v>0.8658769951481952</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.8653903025864709</v>
+        <v>0.8653268516550829</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>289693</v>
+        <v>291648</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>292221</v>
+        <v>290190</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>591017</v>
+        <v>591324</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>305888</v>
+        <v>306459</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>306575</v>
+        <v>306620</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>611048</v>
+        <v>611363</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>439280</v>
+        <v>438264</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>472246</v>
+        <v>472062</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>920500</v>
+        <v>921030</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>476362</v>
+        <v>477019</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>496524</v>
+        <v>496125</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>966501</v>
+        <v>965007</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>281732</v>
+        <v>285087</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>309775</v>
+        <v>310314</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>601142</v>
+        <v>599833</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>300790</v>
+        <v>300807</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>326692</v>
+        <v>327403</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>624816</v>
+        <v>623423</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>286399</v>
+        <v>285973</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>339215</v>
+        <v>341929</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>639132</v>
+        <v>638036</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>322457</v>
+        <v>323050</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>364895</v>
+        <v>366045</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>683572</v>
+        <v>680363</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>195366</v>
+        <v>194897</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>214945</v>
+        <v>214077</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>412725</v>
+        <v>412433</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>201355</v>
+        <v>201347</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>221675</v>
+        <v>221556</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>421926</v>
+        <v>421915</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>241316</v>
+        <v>240890</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>235364</v>
+        <v>235071</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>482700</v>
+        <v>481335</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>256303</v>
+        <v>256159</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>250160</v>
+        <v>249944</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>503365</v>
+        <v>503046</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>634617</v>
+        <v>633621</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>642765</v>
+        <v>642137</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1285803</v>
+        <v>1284684</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>656946</v>
+        <v>658142</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>675276</v>
+        <v>674361</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1325800</v>
+        <v>1326033</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>451293</v>
+        <v>450606</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>468901</v>
+        <v>466909</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>930376</v>
+        <v>937009</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>508344</v>
+        <v>506345</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>520251</v>
+        <v>516410</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1009552</v>
+        <v>1010025</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2891002</v>
+        <v>2894961</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>3040991</v>
+        <v>3039189</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>5958263</v>
+        <v>5961091</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2983022</v>
+        <v>2984639</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>3121203</v>
+        <v>3116337</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>6074929</v>
+        <v>6074484</v>
       </c>
     </row>
     <row r="40">
